--- a/biology/Zoologie/Fred_la_marmotte/Fred_la_marmotte.xlsx
+++ b/biology/Zoologie/Fred_la_marmotte/Fred_la_marmotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fred la marmotte est une marmotte de la ville de Val-d'Espoir proche de Percé, Québec, dont le comportement est utilisé pour prédire le temps lors du jour de la marmotte[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fred la marmotte est une marmotte de la ville de Val-d'Espoir proche de Percé, Québec, dont le comportement est utilisé pour prédire le temps lors du jour de la marmotte.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la tradition de la journée de la marmotte (anglais : Groundhog Day), si la marmotte enrôlée voit son ombre, alors le printemps sera retardé ; si elle ne voit pas son ombre, alors le printemps sera précoce[1]. Fred est l'homologue québécois de Punxsutawney Phil, la marmotte fameuse partout le monde de l'état américain de Pennsylvanie.
-L'habitat de Fred est unique car c'est le seul à la fois utilisé pour les prévisions météorologiques du jour de la marmotte et situé sur un site du patrimoine mondial[2]. Le Fred original, « Gros Fred », a été fiancé de 2010 à 2017 et à nouveau en 2019; son fils « Petit Fred » l'a remplacé pour l'événement en 2018[3].
-Le Fred original a été retrouvé mort le 2 février 2023, soit juste avant le moment de sa prestation annuelle[4]. En 2024, il a été remplacé par une autre marmotte, également nommée Fred, afin de poursuivre la tradition[5], qui existe également en Nouvelle-Écosse, avec Shubenacadie Sam, et en Ontario, avec Wiarton Willie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la tradition de la journée de la marmotte (anglais : Groundhog Day), si la marmotte enrôlée voit son ombre, alors le printemps sera retardé ; si elle ne voit pas son ombre, alors le printemps sera précoce. Fred est l'homologue québécois de Punxsutawney Phil, la marmotte fameuse partout le monde de l'état américain de Pennsylvanie.
+L'habitat de Fred est unique car c'est le seul à la fois utilisé pour les prévisions météorologiques du jour de la marmotte et situé sur un site du patrimoine mondial. Le Fred original, « Gros Fred », a été fiancé de 2010 à 2017 et à nouveau en 2019; son fils « Petit Fred » l'a remplacé pour l'événement en 2018.
+Le Fred original a été retrouvé mort le 2 février 2023, soit juste avant le moment de sa prestation annuelle. En 2024, il a été remplacé par une autre marmotte, également nommée Fred, afin de poursuivre la tradition, qui existe également en Nouvelle-Écosse, avec Shubenacadie Sam, et en Ontario, avec Wiarton Willie.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
